--- a/Code/Results/Cases/Case_3_201/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_201/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.9159121045535</v>
+        <v>24.20211632131014</v>
       </c>
       <c r="C2">
-        <v>16.76873357461936</v>
+        <v>11.69932770511651</v>
       </c>
       <c r="D2">
-        <v>3.030342078856288</v>
+        <v>4.581185571546554</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>37.73025274574958</v>
+        <v>49.95198945433712</v>
       </c>
       <c r="G2">
-        <v>2.119516709684901</v>
+        <v>3.75782654549194</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.31895402083463</v>
+        <v>35.01219703964031</v>
       </c>
       <c r="J2">
-        <v>5.853151448742381</v>
+        <v>9.498795707720062</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.266660765631948</v>
+        <v>12.23761751769462</v>
       </c>
       <c r="M2">
-        <v>14.65465492757533</v>
+        <v>20.45175224154402</v>
       </c>
       <c r="N2">
-        <v>14.20552718473674</v>
+        <v>21.84510553373602</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.49873605076501</v>
+        <v>23.92119859376479</v>
       </c>
       <c r="C3">
-        <v>15.56540373824964</v>
+        <v>11.30429259650018</v>
       </c>
       <c r="D3">
-        <v>2.898297027772508</v>
+        <v>4.5498350858387</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>36.77544404836562</v>
+        <v>49.92958505205166</v>
       </c>
       <c r="G3">
-        <v>2.130094836689073</v>
+        <v>3.761661380767777</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.04483445483735</v>
+        <v>35.06539113271728</v>
       </c>
       <c r="J3">
-        <v>5.864182352308909</v>
+        <v>9.503238491592846</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.193970691865248</v>
+        <v>12.25298376601398</v>
       </c>
       <c r="M3">
-        <v>14.11641771184747</v>
+        <v>20.41213776007392</v>
       </c>
       <c r="N3">
-        <v>14.46690068329656</v>
+        <v>21.91592544245623</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.59936761387113</v>
+        <v>23.75341820086984</v>
       </c>
       <c r="C4">
-        <v>14.79006230515524</v>
+        <v>11.05837847861292</v>
       </c>
       <c r="D4">
-        <v>2.816030386700878</v>
+        <v>4.530011490559326</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.21423438085883</v>
+        <v>49.9276744132593</v>
       </c>
       <c r="G4">
-        <v>2.136748909831395</v>
+        <v>3.76413895203808</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.89730392750439</v>
+        <v>35.10523342111419</v>
       </c>
       <c r="J4">
-        <v>5.871374801570063</v>
+        <v>9.5061454540604</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.152529231239496</v>
+        <v>12.26399994906241</v>
       </c>
       <c r="M4">
-        <v>13.78532403152436</v>
+        <v>20.39171788041162</v>
       </c>
       <c r="N4">
-        <v>14.63047510428889</v>
+        <v>21.96140761406224</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.22579638117627</v>
+        <v>23.68630691916077</v>
       </c>
       <c r="C5">
-        <v>14.4648142462884</v>
+        <v>10.95749872650325</v>
       </c>
       <c r="D5">
-        <v>2.782187886328753</v>
+        <v>4.521789013261047</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.99183939821086</v>
+        <v>49.92987167662958</v>
       </c>
       <c r="G5">
-        <v>2.139502805078541</v>
+        <v>3.765179619031572</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.84220922936477</v>
+        <v>35.12326980830006</v>
       </c>
       <c r="J5">
-        <v>5.874409681864834</v>
+        <v>9.507375189532384</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.13643395909713</v>
+        <v>12.26888703571757</v>
       </c>
       <c r="M5">
-        <v>13.65040522592668</v>
+        <v>20.38438373989148</v>
       </c>
       <c r="N5">
-        <v>14.69794416968119</v>
+        <v>21.98044581986823</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.16334778130376</v>
+        <v>23.67524149625504</v>
       </c>
       <c r="C6">
-        <v>14.41024294116962</v>
+        <v>10.94071283067325</v>
       </c>
       <c r="D6">
-        <v>2.776548678279092</v>
+        <v>4.520414973656799</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35.95529155425965</v>
+        <v>49.93041614456312</v>
       </c>
       <c r="G6">
-        <v>2.139962706896804</v>
+        <v>3.765354298920001</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.83335839090686</v>
+        <v>35.126373306933</v>
       </c>
       <c r="J6">
-        <v>5.874919854687975</v>
+        <v>9.507582114389095</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.133808919196056</v>
+        <v>12.26972257261641</v>
       </c>
       <c r="M6">
-        <v>13.62800733053827</v>
+        <v>20.3832256781451</v>
       </c>
       <c r="N6">
-        <v>14.7091973255455</v>
+        <v>21.98363756978153</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.59435770726809</v>
+        <v>23.75250790999612</v>
       </c>
       <c r="C7">
-        <v>14.78571365037644</v>
+        <v>11.05702043859238</v>
       </c>
       <c r="D7">
-        <v>2.815575285008294</v>
+        <v>4.529901182922416</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.21120956353051</v>
+        <v>49.92769200255678</v>
       </c>
       <c r="G7">
-        <v>2.136785875593914</v>
+        <v>3.76415286101924</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.89654082105901</v>
+        <v>35.10546938422574</v>
       </c>
       <c r="J7">
-        <v>5.871415312264867</v>
+        <v>9.506161855865997</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.152308969368984</v>
+        <v>12.2640642465888</v>
       </c>
       <c r="M7">
-        <v>13.78350422755707</v>
+        <v>20.39161496609811</v>
       </c>
       <c r="N7">
-        <v>14.63138168698415</v>
+        <v>21.96166232819175</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.43347345803456</v>
+        <v>24.10432689453631</v>
       </c>
       <c r="C8">
-        <v>16.36132563265063</v>
+        <v>11.56391946679366</v>
       </c>
       <c r="D8">
-        <v>2.985047304053615</v>
+        <v>4.570495231532203</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>37.39583916520713</v>
+        <v>49.9418046715688</v>
       </c>
       <c r="G8">
-        <v>2.123132479553347</v>
+        <v>3.75912334460274</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.2200051487364</v>
+        <v>35.02904486202659</v>
       </c>
       <c r="J8">
-        <v>5.856866839530798</v>
+        <v>9.500290469442255</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.24092917282641</v>
+        <v>12.24258779495523</v>
       </c>
       <c r="M8">
-        <v>14.46928754874862</v>
+        <v>20.43728653114304</v>
       </c>
       <c r="N8">
-        <v>14.29502836641194</v>
+        <v>21.86911025729421</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.80017661883931</v>
+        <v>24.82804413884364</v>
       </c>
       <c r="C9">
-        <v>19.16756345498572</v>
+        <v>12.52417524770628</v>
       </c>
       <c r="D9">
-        <v>3.309038966527923</v>
+        <v>4.645536664255124</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>39.91776020115411</v>
+        <v>50.06352048880671</v>
       </c>
       <c r="G9">
-        <v>2.097506216056714</v>
+        <v>3.750230897533382</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>25.02807667568241</v>
+        <v>34.93637864347546</v>
       </c>
       <c r="J9">
-        <v>5.831748372480055</v>
+        <v>9.4901933313727</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.440478708673524</v>
+        <v>12.21300583158247</v>
       </c>
       <c r="M9">
-        <v>15.80332796256785</v>
+        <v>20.55754644148867</v>
       </c>
       <c r="N9">
-        <v>13.6583540389929</v>
+        <v>21.7034111348968</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.1220741511</v>
+        <v>25.37553470673668</v>
       </c>
       <c r="C10">
-        <v>21.06610050958927</v>
+        <v>13.20056392935909</v>
       </c>
       <c r="D10">
-        <v>3.543937686368844</v>
+        <v>4.697881901930423</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>41.89347553454721</v>
+        <v>50.21023154226495</v>
       </c>
       <c r="G10">
-        <v>2.079202611920761</v>
+        <v>3.744281842343975</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.7399913749004</v>
+        <v>34.90345356489681</v>
       </c>
       <c r="J10">
-        <v>5.815511724845606</v>
+        <v>9.483632743780651</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.603470913990439</v>
+        <v>12.19889393437831</v>
       </c>
       <c r="M10">
-        <v>16.77069557417542</v>
+        <v>20.66420207963118</v>
       </c>
       <c r="N10">
-        <v>13.20225277059951</v>
+        <v>21.59121293820062</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.21436201091853</v>
+        <v>25.62698709318564</v>
       </c>
       <c r="C11">
-        <v>21.89685419849557</v>
+        <v>13.50042756915322</v>
       </c>
       <c r="D11">
-        <v>3.650676482892739</v>
+        <v>4.721088754711127</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>42.81993027375222</v>
+        <v>50.28936256452801</v>
       </c>
       <c r="G11">
-        <v>2.070945152423171</v>
+        <v>3.741700749226765</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>26.09228364459158</v>
+        <v>34.89616034374979</v>
       </c>
       <c r="J11">
-        <v>5.808645867313787</v>
+        <v>9.48083319880392</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.681348849156924</v>
+        <v>12.19412428747583</v>
       </c>
       <c r="M11">
-        <v>17.20722659709689</v>
+        <v>20.71659268266569</v>
       </c>
       <c r="N11">
-        <v>12.9967776207175</v>
+        <v>21.54222405385378</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.62501917546604</v>
+        <v>25.72246334485488</v>
       </c>
       <c r="C12">
-        <v>22.20694496317128</v>
+        <v>13.61274359957669</v>
       </c>
       <c r="D12">
-        <v>3.691135575772903</v>
+        <v>4.729789374201364</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>43.17487428552742</v>
+        <v>50.32110132734814</v>
       </c>
       <c r="G12">
-        <v>2.067823977001096</v>
+        <v>3.740741233780136</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>26.23001820422001</v>
+        <v>34.89450686266701</v>
       </c>
       <c r="J12">
-        <v>5.806124826393007</v>
+        <v>9.479799580299773</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.711392407781635</v>
+        <v>12.19255489540827</v>
       </c>
       <c r="M12">
-        <v>17.37199317737483</v>
+        <v>20.73697849924459</v>
       </c>
       <c r="N12">
-        <v>12.91921589633506</v>
+        <v>21.52396676620429</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.53684225871395</v>
+        <v>25.70189079680702</v>
       </c>
       <c r="C13">
-        <v>22.14035737581002</v>
+        <v>13.58861091512919</v>
       </c>
       <c r="D13">
-        <v>3.682419231208331</v>
+        <v>4.727919427698444</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>43.09824491805988</v>
+        <v>50.31418709160305</v>
       </c>
       <c r="G13">
-        <v>2.068495994284732</v>
+        <v>3.740947088743755</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>26.20015804294885</v>
+        <v>34.89481363102582</v>
       </c>
       <c r="J13">
-        <v>5.8066641947377</v>
+        <v>9.480021010827571</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.704897109277506</v>
+        <v>12.19288236999495</v>
       </c>
       <c r="M13">
-        <v>17.33653186016092</v>
+        <v>20.73256390734848</v>
       </c>
       <c r="N13">
-        <v>12.93590986374546</v>
+        <v>21.52788575354831</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.24826698548654</v>
+        <v>25.63483733689341</v>
       </c>
       <c r="C14">
-        <v>21.92245425196257</v>
+        <v>13.50969322989266</v>
       </c>
       <c r="D14">
-        <v>3.654003929306081</v>
+        <v>4.721806311337924</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>42.84904826620767</v>
+        <v>50.29193824181433</v>
       </c>
       <c r="G14">
-        <v>2.070688281983533</v>
+        <v>3.741621451427265</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>26.10352694765605</v>
+        <v>34.89600208203484</v>
       </c>
       <c r="J14">
-        <v>5.808436852122565</v>
+        <v>9.480747631571818</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.683809366551564</v>
+        <v>12.19399043040788</v>
       </c>
       <c r="M14">
-        <v>17.22079290145914</v>
+        <v>20.7182589417405</v>
       </c>
       <c r="N14">
-        <v>12.99039185279508</v>
+        <v>21.5407161352971</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.07072500705864</v>
+        <v>25.59379599535097</v>
       </c>
       <c r="C15">
-        <v>21.78840398903646</v>
+        <v>13.46118987780071</v>
       </c>
       <c r="D15">
-        <v>3.636605708143595</v>
+        <v>4.718050472344192</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>42.69694909467304</v>
+        <v>50.27854086690353</v>
       </c>
       <c r="G15">
-        <v>2.072031737381873</v>
+        <v>3.742036844408357</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>26.04490882147327</v>
+        <v>34.89687446413798</v>
       </c>
       <c r="J15">
-        <v>5.809533066785496</v>
+        <v>9.481196157590025</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.670965048958416</v>
+        <v>12.1946999684438</v>
       </c>
       <c r="M15">
-        <v>17.14982894081391</v>
+        <v>20.70956760976465</v>
       </c>
       <c r="N15">
-        <v>13.02379461461761</v>
+        <v>21.54861333464309</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.0545306553158</v>
+        <v>25.35914238449859</v>
       </c>
       <c r="C16">
-        <v>21.01116607516241</v>
+        <v>13.18079990164013</v>
       </c>
       <c r="D16">
-        <v>3.536964288011532</v>
+        <v>4.696353076419058</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>41.83349687252737</v>
+        <v>50.20530882821165</v>
       </c>
       <c r="G16">
-        <v>2.079743298498022</v>
+        <v>3.744453032044281</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25.71756059088825</v>
+        <v>34.90408511937592</v>
       </c>
       <c r="J16">
-        <v>5.815971227469317</v>
+        <v>9.48381941441696</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.598457824898642</v>
+        <v>12.19923880225564</v>
       </c>
       <c r="M16">
-        <v>16.74209293497011</v>
+        <v>20.66085529616837</v>
       </c>
       <c r="N16">
-        <v>13.2157179128325</v>
+        <v>21.59445564324528</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.45894944826792</v>
+        <v>25.21574089409628</v>
       </c>
       <c r="C17">
-        <v>20.52608655995613</v>
+        <v>13.00670221238516</v>
       </c>
       <c r="D17">
-        <v>3.475844505419788</v>
+        <v>4.682887207284249</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>41.31096666091273</v>
+        <v>50.16355183509484</v>
       </c>
       <c r="G17">
-        <v>2.084488935923106</v>
+        <v>3.745967263702904</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25.52419206039309</v>
+        <v>34.91047932564496</v>
       </c>
       <c r="J17">
-        <v>5.82005677341027</v>
+        <v>9.485475997393015</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.554943489801158</v>
+        <v>12.20244548496057</v>
       </c>
       <c r="M17">
-        <v>16.4910251240007</v>
+        <v>20.63195664405392</v>
       </c>
       <c r="N17">
-        <v>13.33394140246189</v>
+        <v>21.62310281560999</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.11330164037249</v>
+        <v>25.13349090403078</v>
       </c>
       <c r="C18">
-        <v>20.2439693532091</v>
+        <v>12.90583467168626</v>
       </c>
       <c r="D18">
-        <v>3.440675024531126</v>
+        <v>4.675085041995989</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>41.01301645381559</v>
+        <v>50.14070128753647</v>
       </c>
       <c r="G18">
-        <v>2.087225267123092</v>
+        <v>3.746849997061704</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.41563318940092</v>
+        <v>34.91488025024069</v>
       </c>
       <c r="J18">
-        <v>5.822455356934649</v>
+        <v>9.486446228391779</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.530265344870291</v>
+        <v>12.20444521537223</v>
       </c>
       <c r="M18">
-        <v>16.34628541995979</v>
+        <v>20.61570005122595</v>
       </c>
       <c r="N18">
-        <v>13.40213189850365</v>
+        <v>21.63977299428341</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.99573961148996</v>
+        <v>25.1056847962063</v>
       </c>
       <c r="C19">
-        <v>20.14790811554871</v>
+        <v>12.87156064002465</v>
       </c>
       <c r="D19">
-        <v>3.428763101204304</v>
+        <v>4.672433589595902</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>40.9125782481505</v>
+        <v>50.13316513198387</v>
       </c>
       <c r="G19">
-        <v>2.088153023006166</v>
+        <v>3.747150903247058</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.37932713011028</v>
+        <v>34.91649441995175</v>
       </c>
       <c r="J19">
-        <v>5.823275724854451</v>
+        <v>9.486777724281149</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.521969439753909</v>
+        <v>12.20514898202352</v>
       </c>
       <c r="M19">
-        <v>16.29722340801338</v>
+        <v>20.61025886235653</v>
       </c>
       <c r="N19">
-        <v>13.42525417464507</v>
+        <v>21.64545042748885</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.52266894493707</v>
+        <v>25.23098298530428</v>
       </c>
       <c r="C20">
-        <v>20.57804461226774</v>
+        <v>13.02531171740883</v>
       </c>
       <c r="D20">
-        <v>3.482351984621816</v>
+        <v>4.68432656847471</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>41.36632150267127</v>
+        <v>50.16787621529415</v>
       </c>
       <c r="G20">
-        <v>2.083983083079235</v>
+        <v>3.745804852010914</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25.54449932641282</v>
+        <v>34.9097237834316</v>
       </c>
       <c r="J20">
-        <v>5.819616793967895</v>
+        <v>9.485297850197096</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.559539317703566</v>
+        <v>12.20208805530444</v>
       </c>
       <c r="M20">
-        <v>16.51778641139479</v>
+        <v>20.63499523540956</v>
       </c>
       <c r="N20">
-        <v>13.3213367935012</v>
+        <v>21.62003330030964</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.33319093979721</v>
+        <v>25.65452629189362</v>
       </c>
       <c r="C21">
-        <v>21.98657774255339</v>
+        <v>13.53290762153438</v>
       </c>
       <c r="D21">
-        <v>3.66234862495035</v>
+        <v>4.723604253598501</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>42.92213030000968</v>
+        <v>50.29842521086545</v>
       </c>
       <c r="G21">
-        <v>2.070044233761921</v>
+        <v>3.741422890142504</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>26.1317903478491</v>
+        <v>34.89562290276817</v>
       </c>
       <c r="J21">
-        <v>5.807914001673761</v>
+        <v>9.480533486644859</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.689988198419052</v>
+        <v>12.19365854448897</v>
       </c>
       <c r="M21">
-        <v>17.25480294600813</v>
+        <v>20.72244590633008</v>
       </c>
       <c r="N21">
-        <v>12.97438279152025</v>
+        <v>21.53693957814199</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.51746108599773</v>
+        <v>25.93279263236528</v>
       </c>
       <c r="C22">
-        <v>22.88104975103664</v>
+        <v>13.85740522123229</v>
       </c>
       <c r="D22">
-        <v>3.780250016600732</v>
+        <v>4.748765446224442</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>43.96303852200044</v>
+        <v>50.39407888818474</v>
       </c>
       <c r="G22">
-        <v>2.06096556233057</v>
+        <v>3.738663242091002</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>26.54097858450263</v>
+        <v>34.89286832979144</v>
       </c>
       <c r="J22">
-        <v>5.800727974841944</v>
+        <v>9.477574174895906</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.778476559676968</v>
+        <v>12.1895291835736</v>
       </c>
       <c r="M22">
-        <v>17.73335552005645</v>
+        <v>20.7827809423243</v>
       </c>
       <c r="N22">
-        <v>12.74905045872362</v>
+        <v>21.48434465100802</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.88853189956437</v>
+        <v>25.78417212251613</v>
       </c>
       <c r="C23">
-        <v>22.40595522949772</v>
+        <v>13.68491086774708</v>
       </c>
       <c r="D23">
-        <v>3.717278530361443</v>
+        <v>4.735383111730055</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>43.40522086456529</v>
+        <v>50.34208458907192</v>
       </c>
       <c r="G23">
-        <v>2.065809681597767</v>
+        <v>3.740126618392555</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>26.32018228074663</v>
+        <v>34.89374636150811</v>
       </c>
       <c r="J23">
-        <v>5.804519422665897</v>
+        <v>9.479139506813009</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.730946684978218</v>
+        <v>12.19160702297849</v>
       </c>
       <c r="M23">
-        <v>17.47823187754518</v>
+        <v>20.75029149301811</v>
       </c>
       <c r="N23">
-        <v>12.86919807768925</v>
+        <v>21.51225931146248</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.49387145901401</v>
+        <v>25.2240914266027</v>
       </c>
       <c r="C24">
-        <v>20.55456448138472</v>
+        <v>13.01690077025274</v>
       </c>
       <c r="D24">
-        <v>3.479410053660756</v>
+        <v>4.683676021602895</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>41.3412879275808</v>
+        <v>50.16591756118311</v>
       </c>
       <c r="G24">
-        <v>2.084211753920158</v>
+        <v>3.745878240384209</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.53531029578502</v>
+        <v>34.91006310654465</v>
       </c>
       <c r="J24">
-        <v>5.81981555401578</v>
+        <v>9.485378334973653</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.557460489724449</v>
+        <v>12.20224916278053</v>
       </c>
       <c r="M24">
-        <v>16.50568886870345</v>
+        <v>20.63362037350799</v>
       </c>
       <c r="N24">
-        <v>13.32703464186204</v>
+        <v>21.62142040339494</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.91588063257125</v>
+        <v>24.6291357508983</v>
       </c>
       <c r="C25">
-        <v>18.43783230217408</v>
+        <v>12.26895078321884</v>
       </c>
       <c r="D25">
-        <v>3.222105708096382</v>
+        <v>4.625725097103915</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.21413696423517</v>
+        <v>50.02052180507101</v>
       </c>
       <c r="G25">
-        <v>2.104332982060755</v>
+        <v>3.752533413565568</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>24.78961063930325</v>
+        <v>34.95529209198155</v>
       </c>
       <c r="J25">
-        <v>5.83816557673437</v>
+        <v>9.492773822634986</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.383670075486185</v>
+        <v>12.219668498878</v>
       </c>
       <c r="M25">
-        <v>15.44431945085229</v>
+        <v>20.5217661682645</v>
       </c>
       <c r="N25">
-        <v>13.82837216880877</v>
+        <v>21.74655533630508</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_201/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_201/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.20211632131014</v>
+        <v>23.91591210455351</v>
       </c>
       <c r="C2">
-        <v>11.69932770511651</v>
+        <v>16.76873357461936</v>
       </c>
       <c r="D2">
-        <v>4.581185571546554</v>
+        <v>3.03034207885617</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>49.95198945433712</v>
+        <v>37.73025274574959</v>
       </c>
       <c r="G2">
-        <v>3.75782654549194</v>
+        <v>2.119516709685031</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>35.01219703964031</v>
+        <v>24.31895402083467</v>
       </c>
       <c r="J2">
-        <v>9.498795707720062</v>
+        <v>5.853151448742548</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.23761751769462</v>
+        <v>7.266660765632017</v>
       </c>
       <c r="M2">
-        <v>20.45175224154402</v>
+        <v>14.65465492757536</v>
       </c>
       <c r="N2">
-        <v>21.84510553373602</v>
+        <v>14.20552718473678</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.92119859376479</v>
+        <v>22.49873605076505</v>
       </c>
       <c r="C3">
-        <v>11.30429259650018</v>
+        <v>15.56540373824963</v>
       </c>
       <c r="D3">
-        <v>4.5498350858387</v>
+        <v>2.898297027772385</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>49.92958505205166</v>
+        <v>36.77544404836574</v>
       </c>
       <c r="G3">
-        <v>3.761661380767777</v>
+        <v>2.130094836689206</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>35.06539113271728</v>
+        <v>24.04483445483751</v>
       </c>
       <c r="J3">
-        <v>9.503238491592846</v>
+        <v>5.864182352308908</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.25298376601398</v>
+        <v>7.19397069186522</v>
       </c>
       <c r="M3">
-        <v>20.41213776007392</v>
+        <v>14.1164177118475</v>
       </c>
       <c r="N3">
-        <v>21.91592544245623</v>
+        <v>14.4669006832967</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.75341820086984</v>
+        <v>21.59936761387118</v>
       </c>
       <c r="C4">
-        <v>11.05837847861292</v>
+        <v>14.79006230515518</v>
       </c>
       <c r="D4">
-        <v>4.530011490559326</v>
+        <v>2.816030386700816</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>49.9276744132593</v>
+        <v>36.21423438085907</v>
       </c>
       <c r="G4">
-        <v>3.76413895203808</v>
+        <v>2.136748909831262</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>35.10523342111419</v>
+        <v>23.89730392750451</v>
       </c>
       <c r="J4">
-        <v>9.5061454540604</v>
+        <v>5.871374801570167</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.26399994906241</v>
+        <v>7.152529231239596</v>
       </c>
       <c r="M4">
-        <v>20.39171788041162</v>
+        <v>13.78532403152445</v>
       </c>
       <c r="N4">
-        <v>21.96140761406224</v>
+        <v>14.63047510428897</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.68630691916077</v>
+        <v>21.22579638117625</v>
       </c>
       <c r="C5">
-        <v>10.95749872650325</v>
+        <v>14.46481424628842</v>
       </c>
       <c r="D5">
-        <v>4.521789013261047</v>
+        <v>2.782187886328572</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>49.92987167662958</v>
+        <v>35.99183939821075</v>
       </c>
       <c r="G5">
-        <v>3.765179619031572</v>
+        <v>2.139502805078675</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>35.12326980830006</v>
+        <v>23.84220922936472</v>
       </c>
       <c r="J5">
-        <v>9.507375189532384</v>
+        <v>5.874409681864934</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.26888703571757</v>
+        <v>7.136433959097155</v>
       </c>
       <c r="M5">
-        <v>20.38438373989148</v>
+        <v>13.65040522592665</v>
       </c>
       <c r="N5">
-        <v>21.98044581986823</v>
+        <v>14.69794416968119</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.67524149625504</v>
+        <v>21.16334778130377</v>
       </c>
       <c r="C6">
-        <v>10.94071283067325</v>
+        <v>14.41024294116971</v>
       </c>
       <c r="D6">
-        <v>4.520414973656799</v>
+        <v>2.776548678279219</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>49.93041614456312</v>
+        <v>35.95529155425955</v>
       </c>
       <c r="G6">
-        <v>3.765354298920001</v>
+        <v>2.139962706896537</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>35.126373306933</v>
+        <v>23.83335839090677</v>
       </c>
       <c r="J6">
-        <v>9.507582114389095</v>
+        <v>5.874919854687909</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.26972257261641</v>
+        <v>7.133808919195955</v>
       </c>
       <c r="M6">
-        <v>20.3832256781451</v>
+        <v>13.62800733053823</v>
       </c>
       <c r="N6">
-        <v>21.98363756978153</v>
+        <v>14.70919732554544</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.75250790999612</v>
+        <v>21.59435770726808</v>
       </c>
       <c r="C7">
-        <v>11.05702043859238</v>
+        <v>14.78571365037639</v>
       </c>
       <c r="D7">
-        <v>4.529901182922416</v>
+        <v>2.815575285008177</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>49.92769200255678</v>
+        <v>36.21120956353061</v>
       </c>
       <c r="G7">
-        <v>3.76415286101924</v>
+        <v>2.136785875593648</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>35.10546938422574</v>
+        <v>23.8965408210591</v>
       </c>
       <c r="J7">
-        <v>9.506161855865997</v>
+        <v>5.871415312264903</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.2640642465888</v>
+        <v>7.152308969368979</v>
       </c>
       <c r="M7">
-        <v>20.39161496609811</v>
+        <v>13.78350422755705</v>
       </c>
       <c r="N7">
-        <v>21.96166232819175</v>
+        <v>14.63138168698429</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.10432689453631</v>
+        <v>23.43347345803459</v>
       </c>
       <c r="C8">
-        <v>11.56391946679366</v>
+        <v>16.36132563265057</v>
       </c>
       <c r="D8">
-        <v>4.570495231532203</v>
+        <v>2.985047304053725</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>49.9418046715688</v>
+        <v>37.39583916520711</v>
       </c>
       <c r="G8">
-        <v>3.75912334460274</v>
+        <v>2.123132479552813</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>35.02904486202659</v>
+        <v>24.22000514873636</v>
       </c>
       <c r="J8">
-        <v>9.500290469442255</v>
+        <v>5.856866839530697</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.24258779495523</v>
+        <v>7.240929172826408</v>
       </c>
       <c r="M8">
-        <v>20.43728653114304</v>
+        <v>14.46928754874862</v>
       </c>
       <c r="N8">
-        <v>21.86911025729421</v>
+        <v>14.29502836641188</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.82804413884364</v>
+        <v>26.80017661883933</v>
       </c>
       <c r="C9">
-        <v>12.52417524770628</v>
+        <v>19.16756345498562</v>
       </c>
       <c r="D9">
-        <v>4.645536664255124</v>
+        <v>3.309038966527873</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>50.06352048880671</v>
+        <v>39.91776020115414</v>
       </c>
       <c r="G9">
-        <v>3.750230897533382</v>
+        <v>2.09750621605632</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>34.93637864347546</v>
+        <v>25.02807667568242</v>
       </c>
       <c r="J9">
-        <v>9.4901933313727</v>
+        <v>5.831748372480056</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.21300583158247</v>
+        <v>7.440478708673546</v>
       </c>
       <c r="M9">
-        <v>20.55754644148867</v>
+        <v>15.80332796256784</v>
       </c>
       <c r="N9">
-        <v>21.7034111348968</v>
+        <v>13.65835403899288</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.37553470673668</v>
+        <v>29.12207415110005</v>
       </c>
       <c r="C10">
-        <v>13.20056392935909</v>
+        <v>21.06610050958912</v>
       </c>
       <c r="D10">
-        <v>4.697881901930423</v>
+        <v>3.543937686368741</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>50.21023154226495</v>
+        <v>41.89347553454735</v>
       </c>
       <c r="G10">
-        <v>3.744281842343975</v>
+        <v>2.07920261192089</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>34.90345356489681</v>
+        <v>25.73999137490046</v>
       </c>
       <c r="J10">
-        <v>9.483632743780651</v>
+        <v>5.81551172484557</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.19889393437831</v>
+        <v>7.603470913990433</v>
       </c>
       <c r="M10">
-        <v>20.66420207963118</v>
+        <v>16.77069557417542</v>
       </c>
       <c r="N10">
-        <v>21.59121293820062</v>
+        <v>13.20225277059953</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.62698709318564</v>
+        <v>30.21436201091863</v>
       </c>
       <c r="C11">
-        <v>13.50042756915322</v>
+        <v>21.89685419849573</v>
       </c>
       <c r="D11">
-        <v>4.721088754711127</v>
+        <v>3.650676482893007</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>50.28936256452801</v>
+        <v>42.81993027375216</v>
       </c>
       <c r="G11">
-        <v>3.741700749226765</v>
+        <v>2.070945152423433</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>34.89616034374979</v>
+        <v>26.09228364459145</v>
       </c>
       <c r="J11">
-        <v>9.48083319880392</v>
+        <v>5.808645867313721</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.19412428747583</v>
+        <v>7.681348849156884</v>
       </c>
       <c r="M11">
-        <v>20.71659268266569</v>
+        <v>17.20722659709686</v>
       </c>
       <c r="N11">
-        <v>21.54222405385378</v>
+        <v>12.99677762071738</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.72246334485488</v>
+        <v>30.62501917546619</v>
       </c>
       <c r="C12">
-        <v>13.61274359957669</v>
+        <v>22.20694496317132</v>
       </c>
       <c r="D12">
-        <v>4.729789374201364</v>
+        <v>3.69113557577302</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>50.32110132734814</v>
+        <v>43.17487428552727</v>
       </c>
       <c r="G12">
-        <v>3.740741233780136</v>
+        <v>2.067823977000967</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>34.89450686266701</v>
+        <v>26.23001820421981</v>
       </c>
       <c r="J12">
-        <v>9.479799580299773</v>
+        <v>5.806124826393074</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.19255489540827</v>
+        <v>7.711392407781684</v>
       </c>
       <c r="M12">
-        <v>20.73697849924459</v>
+        <v>17.3719931773748</v>
       </c>
       <c r="N12">
-        <v>21.52396676620429</v>
+        <v>12.91921589633487</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.70189079680702</v>
+        <v>30.53684225871395</v>
       </c>
       <c r="C13">
-        <v>13.58861091512919</v>
+        <v>22.14035737581003</v>
       </c>
       <c r="D13">
-        <v>4.727919427698444</v>
+        <v>3.682419231208325</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>50.31418709160305</v>
+        <v>43.09824491805988</v>
       </c>
       <c r="G13">
-        <v>3.740947088743755</v>
+        <v>2.068495994284601</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>34.89481363102582</v>
+        <v>26.20015804294888</v>
       </c>
       <c r="J13">
-        <v>9.480021010827571</v>
+        <v>5.806664194737768</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.19288236999495</v>
+        <v>7.704897109277498</v>
       </c>
       <c r="M13">
-        <v>20.73256390734848</v>
+        <v>17.33653186016091</v>
       </c>
       <c r="N13">
-        <v>21.52788575354831</v>
+        <v>12.93590986374546</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.63483733689341</v>
+        <v>30.24826698548655</v>
       </c>
       <c r="C14">
-        <v>13.50969322989266</v>
+        <v>21.92245425196254</v>
       </c>
       <c r="D14">
-        <v>4.721806311337924</v>
+        <v>3.654003929306081</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>50.29193824181433</v>
+        <v>42.84904826620771</v>
       </c>
       <c r="G14">
-        <v>3.741621451427265</v>
+        <v>2.070688281983664</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>34.89600208203484</v>
+        <v>26.10352694765612</v>
       </c>
       <c r="J14">
-        <v>9.480747631571818</v>
+        <v>5.808436852122564</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.19399043040788</v>
+        <v>7.683809366551499</v>
       </c>
       <c r="M14">
-        <v>20.7182589417405</v>
+        <v>17.22079290145915</v>
       </c>
       <c r="N14">
-        <v>21.5407161352971</v>
+        <v>12.99039185279512</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.59379599535097</v>
+        <v>30.07072500705876</v>
       </c>
       <c r="C15">
-        <v>13.46118987780071</v>
+        <v>21.78840398903651</v>
       </c>
       <c r="D15">
-        <v>4.718050472344192</v>
+        <v>3.636605708143855</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>50.27854086690353</v>
+        <v>42.69694909467306</v>
       </c>
       <c r="G15">
-        <v>3.742036844408357</v>
+        <v>2.072031737381738</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>34.89687446413798</v>
+        <v>26.04490882147316</v>
       </c>
       <c r="J15">
-        <v>9.481196157590025</v>
+        <v>5.809533066785393</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.1946999684438</v>
+        <v>7.670965048958442</v>
       </c>
       <c r="M15">
-        <v>20.70956760976465</v>
+        <v>17.1498289408139</v>
       </c>
       <c r="N15">
-        <v>21.54861333464309</v>
+        <v>13.02379461461741</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.35914238449859</v>
+        <v>29.05453065531586</v>
       </c>
       <c r="C16">
-        <v>13.18079990164013</v>
+        <v>21.01116607516236</v>
       </c>
       <c r="D16">
-        <v>4.696353076419058</v>
+        <v>3.536964288011539</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>50.20530882821165</v>
+        <v>41.83349687252746</v>
       </c>
       <c r="G16">
-        <v>3.744453032044281</v>
+        <v>2.079743298497758</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>34.90408511937592</v>
+        <v>25.7175605908883</v>
       </c>
       <c r="J16">
-        <v>9.48381941441696</v>
+        <v>5.81597122746925</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.19923880225564</v>
+        <v>7.598457824898663</v>
       </c>
       <c r="M16">
-        <v>20.66085529616837</v>
+        <v>16.74209293497011</v>
       </c>
       <c r="N16">
-        <v>21.59445564324528</v>
+        <v>13.21571791283254</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.21574089409628</v>
+        <v>28.45894944826794</v>
       </c>
       <c r="C17">
-        <v>13.00670221238516</v>
+        <v>20.52608655995611</v>
       </c>
       <c r="D17">
-        <v>4.682887207284249</v>
+        <v>3.475844505419916</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>50.16355183509484</v>
+        <v>41.31096666091272</v>
       </c>
       <c r="G17">
-        <v>3.745967263702904</v>
+        <v>2.08448893592284</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>34.91047932564496</v>
+        <v>25.52419206039301</v>
       </c>
       <c r="J17">
-        <v>9.485475997393015</v>
+        <v>5.820056773410137</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.20244548496057</v>
+        <v>7.554943489801155</v>
       </c>
       <c r="M17">
-        <v>20.63195664405392</v>
+        <v>16.49102512400067</v>
       </c>
       <c r="N17">
-        <v>21.62310281560999</v>
+        <v>13.33394140246183</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.13349090403078</v>
+        <v>28.11330164037253</v>
       </c>
       <c r="C18">
-        <v>12.90583467168626</v>
+        <v>20.24396935320918</v>
       </c>
       <c r="D18">
-        <v>4.675085041995989</v>
+        <v>3.440675024531265</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>50.14070128753647</v>
+        <v>41.01301645381558</v>
       </c>
       <c r="G18">
-        <v>3.746849997061704</v>
+        <v>2.087225267123227</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>34.91488025024069</v>
+        <v>25.41563318940083</v>
       </c>
       <c r="J18">
-        <v>9.486446228391779</v>
+        <v>5.822455356934547</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.20444521537223</v>
+        <v>7.530265344870211</v>
       </c>
       <c r="M18">
-        <v>20.61570005122595</v>
+        <v>16.34628541995976</v>
       </c>
       <c r="N18">
-        <v>21.63977299428341</v>
+        <v>13.40213189850354</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.1056847962063</v>
+        <v>27.99573961148999</v>
       </c>
       <c r="C19">
-        <v>12.87156064002465</v>
+        <v>20.14790811554879</v>
       </c>
       <c r="D19">
-        <v>4.672433589595902</v>
+        <v>3.428763101204287</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>50.13316513198387</v>
+        <v>40.9125782481503</v>
       </c>
       <c r="G19">
-        <v>3.747150903247058</v>
+        <v>2.088153023006305</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>34.91649441995175</v>
+        <v>25.37932713011007</v>
       </c>
       <c r="J19">
-        <v>9.486777724281149</v>
+        <v>5.823275724854484</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.20514898202352</v>
+        <v>7.521969439753915</v>
       </c>
       <c r="M19">
-        <v>20.61025886235653</v>
+        <v>16.29722340801333</v>
       </c>
       <c r="N19">
-        <v>21.64545042748885</v>
+        <v>13.42525417464489</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.23098298530428</v>
+        <v>28.52266894493708</v>
       </c>
       <c r="C20">
-        <v>13.02531171740883</v>
+        <v>20.57804461226774</v>
       </c>
       <c r="D20">
-        <v>4.68432656847471</v>
+        <v>3.482351984621819</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>50.16787621529415</v>
+        <v>41.36632150267127</v>
       </c>
       <c r="G20">
-        <v>3.745804852010914</v>
+        <v>2.083983083079368</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>34.9097237834316</v>
+        <v>25.54449932641285</v>
       </c>
       <c r="J20">
-        <v>9.485297850197096</v>
+        <v>5.819616793967961</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.20208805530444</v>
+        <v>7.559539317703559</v>
       </c>
       <c r="M20">
-        <v>20.63499523540956</v>
+        <v>16.51778641139479</v>
       </c>
       <c r="N20">
-        <v>21.62003330030964</v>
+        <v>13.3213367935012</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.65452629189362</v>
+        <v>30.33319093979727</v>
       </c>
       <c r="C21">
-        <v>13.53290762153438</v>
+        <v>21.98657774255335</v>
       </c>
       <c r="D21">
-        <v>4.723604253598501</v>
+        <v>3.66234862495018</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>50.29842521086545</v>
+        <v>42.92213030000966</v>
       </c>
       <c r="G21">
-        <v>3.741422890142504</v>
+        <v>2.070044233761652</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>34.89562290276817</v>
+        <v>26.13179034784909</v>
       </c>
       <c r="J21">
-        <v>9.480533486644859</v>
+        <v>5.807914001673728</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.19365854448897</v>
+        <v>7.689988198418994</v>
       </c>
       <c r="M21">
-        <v>20.72244590633008</v>
+        <v>17.25480294600811</v>
       </c>
       <c r="N21">
-        <v>21.53693957814199</v>
+        <v>12.97438279152023</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.93279263236528</v>
+        <v>31.51746108599766</v>
       </c>
       <c r="C22">
-        <v>13.85740522123229</v>
+        <v>22.88104975103655</v>
       </c>
       <c r="D22">
-        <v>4.748765446224442</v>
+        <v>3.780250016600434</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>50.39407888818474</v>
+        <v>43.96303852200052</v>
       </c>
       <c r="G22">
-        <v>3.738663242091002</v>
+        <v>2.060965562330699</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>34.89286832979144</v>
+        <v>26.54097858450275</v>
       </c>
       <c r="J22">
-        <v>9.477574174895906</v>
+        <v>5.800727974842044</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.1895291835736</v>
+        <v>7.778476559676983</v>
       </c>
       <c r="M22">
-        <v>20.7827809423243</v>
+        <v>17.73335552005646</v>
       </c>
       <c r="N22">
-        <v>21.48434465100802</v>
+        <v>12.7490504587238</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.78417212251613</v>
+        <v>30.88853189956443</v>
       </c>
       <c r="C23">
-        <v>13.68491086774708</v>
+        <v>22.40595522949778</v>
       </c>
       <c r="D23">
-        <v>4.735383111730055</v>
+        <v>3.71727853036151</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.34208458907192</v>
+        <v>43.40522086456522</v>
       </c>
       <c r="G23">
-        <v>3.740126618392555</v>
+        <v>2.065809681597639</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>34.89374636150811</v>
+        <v>26.32018228074656</v>
       </c>
       <c r="J23">
-        <v>9.479139506813009</v>
+        <v>5.804519422665929</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.19160702297849</v>
+        <v>7.730946684978253</v>
       </c>
       <c r="M23">
-        <v>20.75029149301811</v>
+        <v>17.47823187754518</v>
       </c>
       <c r="N23">
-        <v>21.51225931146248</v>
+        <v>12.8691980776892</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.2240914266027</v>
+        <v>28.49387145901402</v>
       </c>
       <c r="C24">
-        <v>13.01690077025274</v>
+        <v>20.55456448138477</v>
       </c>
       <c r="D24">
-        <v>4.683676021602895</v>
+        <v>3.479410053660766</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>50.16591756118311</v>
+        <v>41.34128792758089</v>
       </c>
       <c r="G24">
-        <v>3.745878240384209</v>
+        <v>2.084211753920562</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>34.91006310654465</v>
+        <v>25.53531029578513</v>
       </c>
       <c r="J24">
-        <v>9.485378334973653</v>
+        <v>5.819815554015845</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.20224916278053</v>
+        <v>7.557460489724481</v>
       </c>
       <c r="M24">
-        <v>20.63362037350799</v>
+        <v>16.50568886870348</v>
       </c>
       <c r="N24">
-        <v>21.62142040339494</v>
+        <v>13.32703464186217</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.6291357508983</v>
+        <v>25.91588063257124</v>
       </c>
       <c r="C25">
-        <v>12.26895078321884</v>
+        <v>18.43783230217411</v>
       </c>
       <c r="D25">
-        <v>4.625725097103915</v>
+        <v>3.222105708096379</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>50.02052180507101</v>
+        <v>39.2141369642349</v>
       </c>
       <c r="G25">
-        <v>3.752533413565568</v>
+        <v>2.104332982060761</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>34.95529209198155</v>
+        <v>24.78961063930301</v>
       </c>
       <c r="J25">
-        <v>9.492773822634986</v>
+        <v>5.838165576734471</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.219668498878</v>
+        <v>7.383670075486215</v>
       </c>
       <c r="M25">
-        <v>20.5217661682645</v>
+        <v>15.44431945085224</v>
       </c>
       <c r="N25">
-        <v>21.74655533630508</v>
+        <v>13.82837216880861</v>
       </c>
       <c r="O25">
         <v>0</v>
